--- a/Data_file/import_product_OB2.xlsx
+++ b/Data_file/import_product_OB2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
   <si>
     <t>categ_id</t>
   </si>
@@ -99,94 +99,238 @@
     <t>image</t>
   </si>
   <si>
-    <t>301010060</t>
-  </si>
-  <si>
     <t>PCS</t>
   </si>
   <si>
-    <t>301010053</t>
-  </si>
-  <si>
-    <t>301010063</t>
-  </si>
-  <si>
-    <t>301010054</t>
-  </si>
-  <si>
-    <t>301010055</t>
-  </si>
-  <si>
-    <t>301010056</t>
-  </si>
-  <si>
-    <t>301010057</t>
-  </si>
-  <si>
-    <t>301010058</t>
-  </si>
-  <si>
-    <t>301010059</t>
-  </si>
-  <si>
-    <t>301010061</t>
-  </si>
-  <si>
-    <t>301010062</t>
-  </si>
-  <si>
-    <t>301010064</t>
-  </si>
-  <si>
-    <t>301010065</t>
-  </si>
-  <si>
-    <t>301010066</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก F56100  ขนาด 958x400x350  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก LA40180KV(SP2-L)  ขนาด 1760x400x400  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก F25090U(L)  ขนาด 864x400x355  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก LA16166KS8-R  ขนาด 1626x450x450  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก FM57119T12-N  ขนาด 1159x507x380  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก FM57123T12-N  ขนาด 1194x507x380  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก FM57149T12-N  ขนาด 1454x507x380  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก FM60140T7(DR-L)  ขนาด 1358x457x284  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก FM57080T12-N(SPR)  ขนาด 764x508x380  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก FM57120T12-N  ขนาด 1164x508x380  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก  ขนาด 32x200x245 R สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก  ขนาด 32x200x245 L สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก EAL01N,EAL11N  ขนาด 655x345x235  สีขาว</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก FU00130U29(SP)  ขนาด 1260x400x400  สีขาว</t>
-  </si>
-  <si>
-    <t>All / 3-SEMI / โครงเหล็กตู้เฟอร์นิเจอร์ / 01 โครงเหล็ก</t>
+    <t>LA0080IR02</t>
+  </si>
+  <si>
+    <t>LFU00SPDTC22029</t>
+  </si>
+  <si>
+    <t>LFU00SPDMC12029</t>
+  </si>
+  <si>
+    <t>FU000SPDMC12029</t>
+  </si>
+  <si>
+    <t>FU000SPDJL12029</t>
+  </si>
+  <si>
+    <t>SP00024D0010000</t>
+  </si>
+  <si>
+    <t>FU000SPDJR12029</t>
+  </si>
+  <si>
+    <t>SP00022D0010000</t>
+  </si>
+  <si>
+    <t>MFS00529A</t>
+  </si>
+  <si>
+    <t>RS00006N110</t>
+  </si>
+  <si>
+    <t>SP00031I0010000</t>
+  </si>
+  <si>
+    <t>FCA0098100</t>
+  </si>
+  <si>
+    <t>FTQ0004DRC10000</t>
+  </si>
+  <si>
+    <t>FU00000DGC12027</t>
+  </si>
+  <si>
+    <t>FU00000DHL12027</t>
+  </si>
+  <si>
+    <t>LFU0000DGC22027</t>
+  </si>
+  <si>
+    <t>LFU0000DRC22027</t>
+  </si>
+  <si>
+    <t>FTQ0001DGC10000</t>
+  </si>
+  <si>
+    <t>FTQ0003DJC10000</t>
+  </si>
+  <si>
+    <t>FTQ0005DTC10000</t>
+  </si>
+  <si>
+    <t>FU00000DJC12027</t>
+  </si>
+  <si>
+    <t>FU00000DIC12027</t>
+  </si>
+  <si>
+    <t>LFU0000DJC22027</t>
+  </si>
+  <si>
+    <t>SP00025D0010000</t>
+  </si>
+  <si>
+    <t>SP00026D0010000</t>
+  </si>
+  <si>
+    <t>FTQ0002DHC10000</t>
+  </si>
+  <si>
+    <t>FU00000DHC12027</t>
+  </si>
+  <si>
+    <t>NXMLC005301</t>
+  </si>
+  <si>
+    <t>NX4LF016213</t>
+  </si>
+  <si>
+    <t>NXA00211210</t>
+  </si>
+  <si>
+    <t>NX20001A0010000</t>
+  </si>
+  <si>
+    <t>NX5ML0152100</t>
+  </si>
+  <si>
+    <t>NFG03-NT-2501200-5802</t>
+  </si>
+  <si>
+    <t>NFG03-143SPC12001200-IDO-AR</t>
+  </si>
+  <si>
+    <t>3FG-0001-259-1</t>
+  </si>
+  <si>
+    <t>3FG-0001-291-1</t>
+  </si>
+  <si>
+    <t>NFG03-03-SS-7009-WG</t>
+  </si>
+  <si>
+    <t>NMA01-001-01-RED-OAK</t>
+  </si>
+  <si>
+    <t>LA8090C. ไลท์ เฟอร์นิเจอร์ + อ่างล้างหน้าอะครีลิค และราวแขวนผ้า สีลายไม้เข้ม</t>
+  </si>
+  <si>
+    <t>LFU00200U29(SP)  เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 200 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>LFU00130U29(SP) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 130 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>FU00130U29(SP) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 130 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>FU00100U29(SP-L) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 100 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>SP525 แผ่นรับใต้เคาน์เตอร์ ขนาด 126.4 ซม.</t>
+  </si>
+  <si>
+    <t>FU00100U29(SP-R) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 100 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>SP523 แผ่นรับใต้เคาน์เตอร์ ขนาด 196 ซม.</t>
+  </si>
+  <si>
+    <t>MFS5180P  อินฟินิท เฟอร์นิเจอร์ + อ่างล้างหน้า ครบชุด ขนาด 180 ซม. สีเทาอ่อนอมน้ำตาล</t>
+  </si>
+  <si>
+    <t>RS06N ชุดสายฉีดชำระ (สาย PVC PREMIUM)</t>
+  </si>
+  <si>
+    <t>SP12M#GR แผ่นกระจกสำหรับเรนชาวเวอร์ MSW12M#GR</t>
+  </si>
+  <si>
+    <t>FCA98C  ก๊อกเดี่ยวอ่างล้างหน้า</t>
+  </si>
+  <si>
+    <t>FTQ180(SP3) Top white nano ขนาด 1800 x 600 x 18 มม. เจาะ 2 หลุม</t>
+  </si>
+  <si>
+    <t>FU00070U27 เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 70 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>FU00089U27(SP3) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 89 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>LFU00070U27 เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 70 ซม. สีลายไม้อ่อน พร้อม Top หิน Quartz</t>
+  </si>
+  <si>
+    <t>LFU00180U27(SP3) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 180 ซม. สีลายไม้อ่อน พร้อม Top หิน Quartz</t>
+  </si>
+  <si>
+    <t>FTQ070 Top white nano ขนาด 700 x 600 x 18 มม. เจาะ 1 หลุม</t>
+  </si>
+  <si>
+    <t>FTQ100(SP1) Top white nano ขนาด 1000 x 600 x 18 มม. เจาะ 1 หลุม</t>
+  </si>
+  <si>
+    <t>FTQ200(SP3) Top white nano ขนาด 2000 x 600 x 18 มม. เจาะ 2 หลุม</t>
+  </si>
+  <si>
+    <t>FU00100U27(SP2) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 100 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>FU00090U27(SP3) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 90 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>LFU00100U27(SP2) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 100 ซม. สีลายไม้อ่อน พร้อม Top หิน Quartz</t>
+  </si>
+  <si>
+    <t>SP526-L  ฟิลเลอร์ด้านซ้าย ขนาด 100x550x600 มม.</t>
+  </si>
+  <si>
+    <t>SP526-R  ฟิลเลอร์ด้านขวา ขนาด 100x550x600 มม.</t>
+  </si>
+  <si>
+    <t>FTQ080(SP) Top white nano ขนาด 800 x 600 x 18 มม. เจาะ 1 หลุม</t>
+  </si>
+  <si>
+    <t>FU00080U27(SP) เฟอร์นิเจอร์กันน้ำ 100%  ขนาด 80 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>NXMLC05-W04 อินฟินิท โถสุขภัณฑ์พร้อมชุดอุปกรณ์ฝาครอบอะครีลิค พร้อมที่วางหนังสือ ที่ใส่กระดาษทิชชู่</t>
+  </si>
+  <si>
+    <t>NX4LF16060F  เพียว   เฟอร์นิเจอร์+อ่างล้างหน้า ขนาด 60 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>NXA221N บีกิน โถสุขภัณฑ์สองชิ้น สีขาว ( Slow Close)</t>
+  </si>
+  <si>
+    <t>NX274(ECO) โถสุขภัณฑ์สองชิ้น (ฝา Slow Close)(NC-7622S-WA)</t>
+  </si>
+  <si>
+    <t>NX5MIR1501 ชุดฝักบัวเรนชาว์เวอร์ (MG-ESM15-L7A-RC-SHR11/SHW11A-LSR2-CP W/O RAIN SHOWER)</t>
+  </si>
+  <si>
+    <t>ไม้ลูกนอน  250x1200x26 mm. รหัสสี LC5802-5</t>
+  </si>
+  <si>
+    <t>ไม้พับผ้า A SPC 1200x1200x1697x26  สี IDOL OAK R</t>
+  </si>
+  <si>
+    <t>ราวบันไดติดผนัง ยาว 7.39 ม. แบบบ้าน 259MD1</t>
+  </si>
+  <si>
+    <t>ราวบันไดติดผนัง ยาว 5.13 ม. แบบบ้าน 291MD1</t>
+  </si>
+  <si>
+    <t>ไม้ SPC สี INDUSTRIAL WOOD SS-7009-WG ขนาด 18.2x121.29x0.5 cm. (12แผ่น/กล่อง/2.65 ตรม.)</t>
+  </si>
+  <si>
+    <t>ไม้ราวบันได Solid Red oak 45x75x3000mm.เซาะร่องด้านใต้ 50mm.</t>
+  </si>
+  <si>
+    <t>All / 9-INVENTORY / OB</t>
   </si>
 </sst>
 </file>
@@ -549,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +704,7 @@
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -645,16 +789,16 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -665,16 +809,16 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -685,16 +829,16 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -705,16 +849,16 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -725,16 +869,16 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -745,16 +889,16 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -765,16 +909,16 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -785,16 +929,16 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -805,16 +949,16 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -825,16 +969,16 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -845,16 +989,16 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -865,16 +1009,16 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -885,16 +1029,16 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -905,21 +1049,501 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
         <v>1</v>
       </c>
     </row>
